--- a/sbs/vicuna_question_ru/openai_davinci_003_gusev_ru_alpaca_7b_lora.xlsx
+++ b/sbs/vicuna_question_ru/openai_davinci_003_gusev_ru_alpaca_7b_lora.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexkuk/proj/rulm-sbs/sbs/ru_vicuna_question/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexkuk/proj/rulm-sbs/sbs/vicuna_question_ru/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF7DD1B-F4E1-CB43-A06E-C07D3ED4D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB265251-4D88-2945-AB4D-23FF8415B178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1745,8 +1745,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="208" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="224" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="350" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="365" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="335" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
